--- a/Main Table.xlsx
+++ b/Main Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c7212a1ac174da/文档/GitHub/Liu2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083E40DF-9FD6-456A-88A2-13119525CED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{93617619-6E8B-4AB4-A944-B883C3D20869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E15469C-72AD-4402-9318-D64D87279E48}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{877376FE-EA8D-42D1-BF7B-E93F05C56434}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18912" windowHeight="11952" xr2:uid="{877376FE-EA8D-42D1-BF7B-E93F05C56434}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
   <si>
     <t>CNS::CPCT02100089T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,22 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Replication strand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transcription strand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>replication timing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InsDel1a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,6 +509,138 @@
   </si>
   <si>
     <t>Breast::DRUP01010037T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Intergentic</t>
+  </si>
+  <si>
+    <t>Genic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lagging </t>
+  </si>
+  <si>
+    <t>leading</t>
+  </si>
+  <si>
+    <t>lagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leading </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Untranscribed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcribed </t>
+  </si>
+  <si>
+    <t>Enriched in intergenic or genic region</t>
+  </si>
+  <si>
+    <t>Untranscribed</t>
+  </si>
+  <si>
+    <t>Transcribed</t>
+  </si>
+  <si>
+    <t>Replication timing trend from early to late</t>
+  </si>
+  <si>
+    <t>Enriched in which replication strand</t>
+  </si>
+  <si>
+    <t>Enriched in which transcription strand</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>Match to Koh et al 2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InD1</t>
+  </si>
+  <si>
+    <t>InD2a</t>
+  </si>
+  <si>
+    <t>InD3a, InD3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InD4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InD6</t>
+  </si>
+  <si>
+    <t>InD7</t>
+  </si>
+  <si>
+    <t>InD8</t>
+  </si>
+  <si>
+    <t>InD13</t>
+  </si>
+  <si>
+    <t>InD12</t>
+  </si>
+  <si>
+    <t>InD15</t>
+  </si>
+  <si>
+    <t>InD14</t>
+  </si>
+  <si>
+    <t>InD26</t>
+  </si>
+  <si>
+    <t>InD29</t>
+  </si>
+  <si>
+    <t>InD18</t>
+  </si>
+  <si>
+    <t>InD19</t>
+  </si>
+  <si>
+    <t>InD9b</t>
+  </si>
+  <si>
+    <t>InD9a</t>
+  </si>
+  <si>
+    <t>4 InD signatures are artefacts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 InD signatures are splited into several InsDel singatures (Table S8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 InD signatures were not found in our cohort because of the different cohort analzyed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.93, 0.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other::WIDE01010510T</t>
+  </si>
+  <si>
+    <t>Bone.SoftTissue::CPCT02010648T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cosine similarity between H and B column</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +667,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -577,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,8 +712,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,20 +1047,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4A8902-16AC-4082-B815-805AB5C9C63A}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.6484375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.6484375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="12.1484375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.34765625" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="70.5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -931,668 +1076,1085 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="6"/>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="D22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H23" s="1"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A25" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H31" s="1"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H32" s="1"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H33" s="1"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="D34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H34" s="1"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A41" s="2"/>
+      <c r="D40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A41" s="6"/>
       <c r="B41" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D41" s="5"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="D42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H42" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A46" s="2"/>
+      <c r="D45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A46" s="8"/>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" ht="42.3" x14ac:dyDescent="0.5">
+      <c r="H47" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="H48" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8" ht="42.3" x14ac:dyDescent="0.5">
+      <c r="H49" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="39">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D45:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Main Table.xlsx
+++ b/Main Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c7212a1ac174da/文档/GitHub/Liu2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mini/Desktop/topography-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{93617619-6E8B-4AB4-A944-B883C3D20869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E15469C-72AD-4402-9318-D64D87279E48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F995CBD4-A737-0342-961F-E0B2D6F79524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18912" windowHeight="11952" xr2:uid="{877376FE-EA8D-42D1-BF7B-E93F05C56434}"/>
+    <workbookView xWindow="12520" yWindow="760" windowWidth="17180" windowHeight="17880" xr2:uid="{877376FE-EA8D-42D1-BF7B-E93F05C56434}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
   <si>
     <t>CNS::CPCT02100089T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,21 @@
   <si>
     <t>Cosine similarity between H and B column</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Increasing</t>
+  </si>
+  <si>
+    <t>Decreasing</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no data</t>
   </si>
 </sst>
 </file>
@@ -652,14 +667,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -699,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,12 +734,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,6 +741,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,23 +1070,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4A8902-16AC-4082-B815-805AB5C9C63A}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="12.1484375" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="11.34765625" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="70.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1094,8 +1115,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1104,78 +1125,80 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1184,54 +1207,56 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1250,16 +1275,18 @@
       <c r="F9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1268,40 +1295,42 @@
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1310,39 +1339,41 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>0.94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -1361,15 +1392,17 @@
       <c r="F14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1388,15 +1421,17 @@
       <c r="F15" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -1415,15 +1450,17 @@
       <c r="F16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1442,15 +1479,17 @@
       <c r="F17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -1469,11 +1508,13 @@
       <c r="F18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1492,11 +1533,13 @@
       <c r="F19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1515,11 +1558,13 @@
       <c r="F20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
@@ -1538,15 +1583,17 @@
       <c r="F21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>0.99</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1565,15 +1612,17 @@
       <c r="F22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>0.98</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1592,11 +1641,13 @@
       <c r="F23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
@@ -1615,16 +1666,18 @@
       <c r="F24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="7">
         <v>0.99</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1633,50 +1686,52 @@
       <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A26" s="6"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A27" s="6"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>88</v>
       </c>
@@ -1695,12 +1750,14 @@
       <c r="F28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="6" t="s">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1709,39 +1766,41 @@
       <c r="C29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="9" t="s">
+      <c r="G29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <v>0.93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
       <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1760,11 +1819,13 @@
       <c r="F31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1781,11 +1842,13 @@
       <c r="F32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -1804,11 +1867,13 @@
       <c r="F33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1827,11 +1892,13 @@
       <c r="F34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -1850,11 +1917,13 @@
       <c r="F35" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
@@ -1873,11 +1942,13 @@
       <c r="F36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
@@ -1896,11 +1967,13 @@
       <c r="F37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -1919,11 +1992,13 @@
       <c r="F38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
@@ -1942,12 +2017,14 @@
       <c r="F39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A40" s="6" t="s">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1956,35 +2033,37 @@
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A41" s="6"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
       <c r="B41" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -2003,15 +2082,17 @@
       <c r="F42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="9" t="s">
+      <c r="G42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="7">
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
@@ -2022,19 +2103,21 @@
         <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -2053,12 +2136,14 @@
       <c r="F44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="8" t="s">
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2067,49 +2152,51 @@
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="9" t="s">
+      <c r="G45" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
       <c r="B46" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9" ht="42.3" x14ac:dyDescent="0.5">
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="H47" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="H48" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="8:8" ht="42.3" x14ac:dyDescent="0.5">
+    <row r="49" spans="8:8" ht="45" x14ac:dyDescent="0.2">
       <c r="H49" s="1" t="s">
         <v>154</v>
       </c>
@@ -2127,11 +2214,6 @@
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="E6:E8"/>
@@ -2140,6 +2222,8 @@
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G11"/>
@@ -2155,6 +2239,9 @@
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
